--- a/spectrum-notes-feuille.xlsx
+++ b/spectrum-notes-feuille.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\scripts\corn-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357B4273-946F-41C0-B827-55AABB60B283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC56F2A-07B2-498F-874B-87CED0BFD5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8DE21D9C-C4C4-4EC1-8423-EA33F20E2652}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="6">
   <si>
     <t>idx</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>zone</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -394,15 +397,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CEB39E-47DD-4148-BD32-102DFAC44446}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +415,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -423,8 +429,11 @@
       <c r="C2">
         <v>25.028324523009299</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -434,8 +443,11 @@
       <c r="C3">
         <v>17.353201657533599</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -445,8 +457,11 @@
       <c r="C4">
         <v>20.0411513797007</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -456,8 +471,11 @@
       <c r="C5">
         <v>26.812428457196798</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -467,8 +485,11 @@
       <c r="C6">
         <v>26.635994506068499</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -478,8 +499,11 @@
       <c r="C7">
         <v>18.448149121832</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -489,8 +513,11 @@
       <c r="C8">
         <v>16.769457980990399</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -500,8 +527,11 @@
       <c r="C9">
         <v>26.933063496835398</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -511,8 +541,11 @@
       <c r="C10">
         <v>23.253121669404202</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -522,8 +555,11 @@
       <c r="C11">
         <v>19.467509130481499</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -533,8 +569,11 @@
       <c r="C12">
         <v>27.761360199656401</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -544,8 +583,11 @@
       <c r="C13">
         <v>19.6757221827284</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -555,8 +597,11 @@
       <c r="C14">
         <v>14.009057136718001</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -566,8 +611,11 @@
       <c r="C15">
         <v>23.201988171785999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -577,8 +625,11 @@
       <c r="C16">
         <v>20.6693260348401</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -588,8 +639,11 @@
       <c r="C17">
         <v>25.8451375178993</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -599,8 +653,11 @@
       <c r="C18">
         <v>20.169636700302199</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -610,8 +667,11 @@
       <c r="C19">
         <v>27.338014298584401</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -621,8 +681,11 @@
       <c r="C20">
         <v>18.9515454345382</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -632,8 +695,11 @@
       <c r="C21">
         <v>20.706668752245601</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -643,8 +709,11 @@
       <c r="C22">
         <v>16.754599951673299</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -654,8 +723,11 @@
       <c r="C23">
         <v>20.2535700635053</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -665,8 +737,11 @@
       <c r="C24">
         <v>16.256514866836199</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -676,8 +751,11 @@
       <c r="C25">
         <v>30.159015848767101</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -687,8 +765,11 @@
       <c r="C26">
         <v>20.504256919957701</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -698,8 +779,11 @@
       <c r="C27">
         <v>21.9377498375251</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -709,8 +793,11 @@
       <c r="C28">
         <v>29.113284277264</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -720,8 +807,11 @@
       <c r="C29">
         <v>28.546134545467702</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -731,8 +821,11 @@
       <c r="C30">
         <v>33.430107845924802</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -742,8 +835,11 @@
       <c r="C31">
         <v>29.5268819550983</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -753,8 +849,11 @@
       <c r="C32">
         <v>30.4228660184889</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -764,8 +863,11 @@
       <c r="C33">
         <v>27.2918354487046</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -775,8 +877,11 @@
       <c r="C34">
         <v>23.044409998692501</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -786,8 +891,11 @@
       <c r="C35">
         <v>28.438836731947902</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -797,8 +905,11 @@
       <c r="C36">
         <v>19.764705444686101</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -808,8 +919,11 @@
       <c r="C37">
         <v>15.551464527379601</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -819,8 +933,11 @@
       <c r="C38">
         <v>18.638581386767299</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -830,8 +947,11 @@
       <c r="C39">
         <v>23.951685091014902</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -841,8 +961,11 @@
       <c r="C40">
         <v>18.867388786747998</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -852,8 +975,11 @@
       <c r="C41">
         <v>18.5272811213507</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -863,8 +989,11 @@
       <c r="C42">
         <v>21.3779903482645</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -874,8 +1003,11 @@
       <c r="C43">
         <v>13.001770828850599</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -885,8 +1017,11 @@
       <c r="C44">
         <v>14.510716684162499</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -896,8 +1031,11 @@
       <c r="C45">
         <v>18.179954309016399</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -907,8 +1045,11 @@
       <c r="C46">
         <v>21.225997630972401</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -918,8 +1059,11 @@
       <c r="C47">
         <v>29.7450952231884</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -929,8 +1073,11 @@
       <c r="C48">
         <v>17.7262552198953</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -940,8 +1087,11 @@
       <c r="C49">
         <v>25.196022796444499</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -951,8 +1101,11 @@
       <c r="C50">
         <v>23.756864410825099</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -962,8 +1115,11 @@
       <c r="C51">
         <v>10.244062833953601</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -973,8 +1129,11 @@
       <c r="C52">
         <v>17.538019176572501</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -984,8 +1143,11 @@
       <c r="C53">
         <v>16.010018624365301</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -994,6 +1156,9 @@
       </c>
       <c r="C54">
         <v>19.0466572181322</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
